--- a/story/主线剧情/main/level_main_08-08_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-08_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="507">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">晖洁：
 </t>
   </si>
@@ -1023,6 +1029,1014 @@
   </si>
   <si>
     <t xml:space="preserve">[name="パトリオット"]  彼らはその愚かさゆえに、少しずつ破滅へと向かっているのだ。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hui-chieh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have been heading south.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The guerrillas are hoping to get to as many mines as possible before the extermination plan gets underway to save as many Infected as we can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The garrison is falling back, and we are pushing further and further ahead.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To outsiders, it probably looks like we are hunting down the Ursus squads. That couldn’t be further from the truth, and it’s a nigh impossible task.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are hiding from the Ursus Army while also trying to save the Infected from under their nose.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you ask me why we are doing this, I guess all I can tell you is, “It’s what we are supposed to do.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That being said, I can’t help but feel that by taking in all these Infected, thus giving the other teams some breathing room, we may be playing into Mr. Patriot’s hand.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patriot might have drawn a line. A line that we dare not to cross.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To cross that line is to fight the Ursus garrison head-on—a tall order, it goes without saying. It’s either that or keeping ourselves under the radar.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In other words, we’ll have to leave the tundra, and that means infiltrating the real Ursus territory—their nomadic cities, where all aspects of life are ruled with their iron fist.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At that point, the guerrillas put their weapons away until it’s time for us to take up arms again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The treatment of the Infected in the cities and ships out in the wild are bound to be even more cruel. I imagine the days that are to come will be very difficult.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It’s not easy to take this step.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But this is the Northwestern Tundra... There’s nothing but snow here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can’t feed all these mouths with just snow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">November 3rd
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year X
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  My brothers and sisters, are you okay?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  It’s good to see all of you in one piece.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  ...Man, was that battle not a disaster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Thank you, Yeti Squad. It’s a pleasure to lead the fight with all of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  The pleasure is ours, Talulah. We all think it’s very reassuring to fight alongside you. We make a good match. Now I can see why FrostNova trusted you to lead our squad. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  What’s more, the way you use your Arts is getting more ingenious by the day. Blasting flames through the cold air, and detonating that? I don’t think I could’ve come up with that one.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well... those weren’t exactly flames. It’s hard to explain, so I’ll spare you the details.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  I’m sure FrostNova can rest easy knowing she doesn’t have to look out for us all the time anymore. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  So, do you think we’ll come across any more of those Ursus scum here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well, this is one of the cities Ursus was planning on dismantling three years ago.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The troops here managed to take over the city, probably thanks to corruption or some equally dirty work... As for the original residents... probably either enslaved or driven out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  They didn’t stand a chance against us, at the very least.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  They aren’t as weak as you’re making them out to be.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Just relatively speaking. Compared to the regular Ursus Army, at least. It’s not like Patriot has let you fight any battles that difficult. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  No, he hasn’t. It’s true. He didn’t think we could handle it. But I think we are more than up to the task now, with how well we’re getting on.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m not so sure about that. The real Ursus Army is on a whole other level. This detachment lacks discipline and training... I’m guessing they might not even be technically organized.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And we just barely had a leg up over these guys because of our tactical planning.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  ...So you’re saying we’ve got nothing to celebrate?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No, far from it. We have all the resources we need to survive now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We really needed these supplies. Without them, we won’t make it through the winter. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Besides, the nomadic city may be old and run-down, maybe even too small, but...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  It’s big enough for us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  None of us have ever been on a nomadic city before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What’s the matter?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You’re... one of the Infected from the Earcurl village... if my memory serves me correctly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We’ve got a pretty big team ourselves! At the very least, we're no smaller than you guerrillas. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Well, you're almost there. I'm not exactly part of the guerrilla force.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We still definitely had more men in this fight than you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...So? What do you want from me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Let’s go our own ways here, Talulah.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You serious?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We’ve fought plenty of battles with you people, and we’ve taken the shirt off our backs for you way more than I can count. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  You can take half of the resources in the city. Hell, take more than that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Just let us keep the city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  With the city... we could go anywhere. We could be anywhere in the tundra. The Patrol Unit and the Ursus troops will never find us. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  So you are saying you don’t want to fight anymore?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We’ll die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  We’re... We’re all a little...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  The enemy... They’re getting stronger and stronger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  These people aren’t even on the same level as any of the contingents that Patriot’s guerrilla squads have faced.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  But we can’t do it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Talulah, you aren’t going to deny us even this, are you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  Okay, what are you people talking about now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  The Yeti...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ...You coldhearted monsters wouldn’t understand! Death means nothing to you, not like the rest of us...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  You—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (Waves Petrova down)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  Talulah...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We’ll get the supplies out right away. The city is yours to keep.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  That’s good to hear...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  But I won’t stand for any insult to our fighters. Apologize to the Yetis right now. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Ahem... Sorry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  That will do, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Petrova, gather your men. We need to itemize the supplies. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (Also, turn on the Ursus comms terminal we captured.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Petrova"]  (You don’t mean...)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (They know Patriot’s guerrilla squad isn’t around.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Where are you going?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Mr. Patriot? We were just about to rendezvous with you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You handed the city to those folks?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Looks like you got my message already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  —What these people are doing is nothing short of betrayal. Your permission has given them the justification they wanted. You destroyed the order here.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The moment they asked to be let go, I wasn’t going to be able to keep them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Those who lack conviction and willpower shouldn’t wage war. Not now, not ever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If we go by your logic, no one was born with the right to set foot on the battlefield in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Discipline is everything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Kill them, and take the city back. You owe your team and your people this. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  So that they know the Infected will kill a bunch of helpless people with their backs against the wall and grease the wheels with their blood, all for a run-down city?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  They have contravened our discipline.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  None ever fought for discipline to begin with.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  It has been four years since we first met. In all this time, not once have I given you an order. I either tolerated your presence there on the battlefield or refused to work with you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I really can’t know if you have matured or gone soft in that time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  All because I don’t agree with you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Summon the rest of the Infected and tell them they’ve betrayed the manifesto. Have them executed immediately.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You must make an example of their transgression.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I can’t do that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I can see you are hesitating. You are hesitating because they, too, are Infected. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Is it because you think this is dishonorable?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You loathe killing, and you don’t care for power. That’s not a bad thing. But then you need someone to do the dirty work for you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’ll let you know I’m not afraid of doing this, and I don’t dare to claim I have the moral high ground over anyone either.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  In that case, the guerrillas and I will get it done.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  If you refuse to take up arms against them, the guerrillas will clean up the mess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  What is that expression? You can’t possibly think I am the honest and noble man everyone makes me out to be?  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Someone like that would’ve been dead long before the fighting even began.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  What’s honorable besides reigning victorious and safeguarding the fruits of victory? Triumphing over the enemies you loathe in battle is by its very nature an honor, but that doesn’t mean I take pride in my sacrifices. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  If a decision leads to victory and fewer dead comrades, then that's the right decision to make.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  This city is already on its last legs. It’s likely been in service for much longer than it was intended. It’s not going to last another three years. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Both you and I know that they are doomed to be stranded in the tundra. They’ll still have to find a way out in the end. But, with the city, they bought themselves a tiny bit of hope, even if it’s just for those three years. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m not going to crush that hope of theirs.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You’re fine seeing your team get torn into two?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No. I already told you... they were never on the same team as us to begin with. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I’m not going to give you the “the weak cannot go to battle” excuse you’ve been giving me. All I’m saying is not everyone thinks the same way we do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We’ll have many people join our ranks. But not all of them are working towards the same goal as we are. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We’re just borrowing their strength. We aren’t exploiting it. If we forced them to do our bidding, we would only be making them work against their own goals. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And that’s how you get them to actually start doubting each other and feel alienated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  All for the sake of unit purity, is it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  If that’s what you want to call it. I’m not sure I’d describe it like that, though. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  If nothing else, I can tell you are a righteous person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  There’s a unit stationed nearby guarding the trade route, and they’re much better trained. You know things are bound to go wrong. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I don’t want to admit it, but you’re right. They just might do that, so we’ll prepare for that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The Yetis... intercepted the message already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You’re right. The nomadic city sent a message out. They tipped off the Ursus troops in the area our location.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...They want to draw the Ursus Army’s attention to us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No one wanted this battle to happen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Their foolishness will slowly lead them to destruction.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훼이지에에게
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리는 계속 남하 중이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">유격대는 각 광산의 감염자 멸종 계획이 시작되기 전에 감염자를 최대한 많이 구하려고 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주둔군이 한 발 후퇴하면, 우리는 한 발 나아갔지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우리가 우르수스 부대를 추격하는 것 같지만 그건 절대 불가능해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">우르수스 정규군을 피하면서, 그들이 보는 앞에서 감염자를 구하고 있어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">왜 이래야 하느냐고 묻는다면, "이렇게 해야 하니까"라고 대답할 수밖에 없을 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 나는 더 많은 감염자를 수용해 다른 부대에게 공간을 확보해 주는 것 역시 패트리어트 씨의 전략 하나라고 생각해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">패트리어트 씨는 선을 그은 것 같아, 우리가 넘을 수 없는 선을……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그 선을 넘는다는 건 절대 불가능하겠지만, 우리가 우르수스 주둔군과 정면승부를 벌이거나 매복해야 한다는 뜻일 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그러니까 설원을 떠난다는 건 우르수스의 진짜 영토, 엄격한 법에 따라 관리되는 이동 영토에 비밀리에 들어간다는 뜻이겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">그때가 되면, 우리가 다시 공격할 기회를 찾기 전까지 유격대는 무기를 내려놔야 할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">황야에는 우르수스 군함이 활개를 치고, 도시에선 감염자를 더 무자비하게 다룰 거야. 분명 고통스러운 시간이 되겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이 한 걸음을 내딛는 게 너무 힘들어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">하지만 서북 툰드라는…… 온통 눈뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">온통 눈뿐인 땅에서는 모두를 먹여 살릴 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11월 3일
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X년째 되던 해
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  모두 괜찮나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  괜찮다면 됐어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  ……끔찍한 전투였어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  고마워, 눈의 악마 소대. 너희와 함께 선봉을 맡아 훨씬 수월했던 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  우리가 할 소리야. 탈룰라, 네가 있어 줘서 든든했어. 우리, 제법 잘 맞는 거 같지 않아? 누님께서 널 소개해 주실 만했어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  게다가 네 아츠는 갈수록 위력적인 것 같아. 냉기 사이로 화염을 흘려보내 폭발을 유도하다니, 나라면 생각도 못 했을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그건…… 화염이 아냐, 설명하자면 좀 복잡해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  누님이 분명 기뻐하실 거야. 이젠 우리도 우리 힘으로 싸울 수 있게 됐으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  탈룰라, 여기서 더 많은 우르수스군을 상대하게 될까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  여긴 3년 전부터 우르수스의 재개발 지역이었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  뇌물 또는 불법적인 행동을 통해 놈들은 또다시 여길 점령하곤…… 현지 민간인을 노역에 동원하거나 추방했지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  적어도 우리 앞에 있는 놈들은 우리 상대가 못 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  네가 말한 것만큼 그렇게 약하지는 않을걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우르수스의 정규 부대에 비하면 그렇다는 거야. 패트리어트 씨도 너희를 힘든 전투에 투입하진 않았었지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  응, 그분 눈엔 우리가 차지 않을 테니까. 물론 지금이라면 문제없겠지만 말이야. 우리나 누님이나 이젠 모두 나름 익숙해졌다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 진짜 우르수스군은 기강도 엉망이고 훈련도 부족한…… 심지어 편제되지도 못한 군대보단 훨씬 강할 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전력이 약한 부대라도, 우린 전술로 조금씩 승기를 굳히는 수밖에 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  뭐야…… 그럼 우린 밑지는 장사하는 거 아냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그렇지도 않아. 생존에 필요한 자원을 얻었으니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이게 없으면 이번 겨울을 지낼 수 없어. 우리에게는 없어선 안 되는 소중한 자산이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그리고 이동도시가 낡고 작기는 해도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  우리에게는 충분해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  이런 곳에서 사는 건 난생처음이거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  탈룰라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  무슨 일이지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  누군지 알겠군…… 이어컬 마을의 감염자지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  우리도 너희 유격대와 같은 대대다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  유감이지만 난 유격대가 아닌데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  하지만 이번에는 우리 쪽 머릿수가 너희보다 많다고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……그럼 날 왜 찾아 온 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  여기서 각자의 길을 가는 게 좋겠다, 탈룰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  진심이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  너희들과는 함께 수많은 전쟁터를 누비며, 많은 일을 함께 했지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  자원의 소유권을 5:5로 나누자, 너희가 좀 더 가져가도 좋아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  대신 여길 우리에게 넘겨줘.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  여기가 있어야…… 여러 곳에 갈 수 있어. 툰드라를 돌아다녀도 감시팀과 우르수스군이 우리를 찾지 못할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  더는 싸우고 싶지 않다는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  죽게 될 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  우린…… 그러니까 우린……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  적들이…… 점점 강해지고 있어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이 녀석들은 패트리어트의 유격대가 그동안 상대했던 그 어떤 적군보다도 약한데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  그래도 우린 상대가 안 된다고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  탈룰라, 우리의 제안을 거절하지 않을 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  대체 무슨 소리를 하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  눈의 악마……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……너희처럼 체온도 없는 녀석들은 당연히 죽는 게 두렵지 않겠지만 우린……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  너……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  (페트로바에게 멈추라는 듯 손을 젓는다.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  탈룰라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리가 자원을 갖는 대신, 너희는 도시를 갖겠다 이건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  그렇게만 해준다면야……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  하지만 전사를 모욕하는 건 용납할 수 없다. 눈의 악마 소대에게 사과해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  크흠…… 미안하다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  이제 됐나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  페트로바, 대원들을 소집해. 자원을 확인해야겠어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  (그리고 압수한 우르수스 통신기를 켜라.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="페트로바"]  (그 말은……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  (저들은 패트리어트의 유격대가 여기에 없다는 걸 알고 있다.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  어딜 가는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  패트리어트 씨? 합류를 준비 중이었습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  저들에게 도시를 갖다 바친 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  소식을 이미 들었나 보군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……저들은 배신을 저지른 것과 다름없다. 그런 자들에게 정당한 이유를 제공하다니. 기강을 무너뜨려서 어쩌겠단 거냐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  저들이 떠나고 싶다는 뜻을 밝힌 순간부터, 붙잡아둘 수는 없었으니까요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  신념이 없는 자와 끈기가 없는 자는 애초부터 전투에 참가할 자격이 없다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그 기준대로라면, 싸울 자격이 있는 사람은 한 명도 없겠죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  기강은 강철보다도 강하다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그들에게서 도시를 되찾아 와라. 네 부대와 네 동료를 위한 일이다, 그들을 죽여서라도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  낡은 도시 하나 때문에 사지에 몰린 사람들을 죽이고, 동료의 피를 동력 삼는 그런 존재가 감염자라는 걸 알게 하라는 건가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  저들은 기강을 무너뜨렸다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  저들이 지금껏 싸운 건 기강 때문이 아니에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  너와 알고 지낸 지도 4년이나 됐군. 네겐 한 번도 정식으로 명령을 내린 적 없었다. 참가 의사 모두 네 뜻을 존중해 줬지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  네가 예전보다 성숙해진 건지, 나약해진 건지 이제는 모르겠군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  당신의 의견을 따르지 않았기 때문인가요?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  네가 다른 감염자에게 도움을 청하거나 저들이 감염자를 배신한 사실을 공개하기만 해도, 저들은 즉시 목숨을 잃게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  저들의 만행을 세상에 공개하는 게 네 의무다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전 할 수 없어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  망설이는 건가? 저들이 감염자라서?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  명예스럽지 못하다고 생각하는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  살육에 몰두하거나 권력에 집착하지 않아도 돼. 그러려면 누군가 그 일을 대신해야 하겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  패트리어트 씨. 전 그렇게 겁쟁이도, 양심적인 편도 아니에요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그럼 나와 유격대에게 맡겨라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  저들과 얽히고 싶지 않다면, 유격대가 나서겠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그 표정은 뭐지? 저들의 말처럼…… 날 순수하고 숭고한 인물로 생각했던 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그런 자는 전쟁이 시작되기 전에 이미 죽었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  전장에서의 승리, 그리고 그 승리의 과실을 지키는 것보다 더 명예로운 건, 가증스러운 적을 쓰러뜨리는 거다. 더 큰 희생을 치른 걸 명예롭게 생각하진 않는다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  우리를 승리로 이끌고, 한 명의 동포라도 살릴 수 있는 것, 그게 바로 정의다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  제대로 관리되지 않은 도시는 몇 년 못 가 무너질 거예요. 그동안 인류에게 봉사했던 시간도 애당초 예상을 넘겼죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리 둘 다 알고 있어요…… 저들의 마지막 운명은 결국 툰드라에서 멈출 것이고, 저들은 여전히 스스로 활로를 찾아야 한다는 것을 말이죠. 3년에 불과한 시간이었지만, 저들은 스스로 희망의 불씨를 지핀 셈입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전 그 희망의 불씨를 지킬 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  다른 세력이 아군을 분열시키는 걸 지켜만 보겠다는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아니요, 말씀드렸잖아요…… 저들은 애당초 우리 소속이 아니라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  당신의 말처럼 "혼자서는 약해서 싸울 수 없다"라고는 말하지 않겠어요. "우리의 생각을 이해하지 못하는 사람도 있다"…… 라고만 해두죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우린 앞으로 많은 동행자를 만나게 되겠지만, 그 사람들 모두가 우리의 목표를 위해 봉사하진 않을 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우린 그들의 힘을 빌리기만 할 뿐, 강요해선 안 됩니다. 누군가에게 강요하는 건 우리의 원래 목적과 어긋나는 행위니까요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그렇게 되면 의심과 불화를 더더욱 피하기 어려울 거예요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  부대의 순결함이라 이건가.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  굳이 그렇게 표현하겠다면야…… 별로 마음에 들진 않지만요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  넌 확실히 정직해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  주변에 훈련이 잘된 수비군이 상주하고 있다. 불행은 피할 수 없을 것 같군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  인정하긴 싫지만 그럴 것 같네요. 그들이라면 그러고도 남을 테니 미리 대비해야겠죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  눈의 악마 소대도…… 보고를 받았어요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  맞아요, 이동도시에서 메시지를 보냈어요. 이 구역의 우르수스 주둔군에게 우리의 위치 정보를 노출했다더군요……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……그들은 우리를 이용해 우르수스군을 끌어내려는 겁니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이제 누구도 원치 않는 전쟁이 되겠죠.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="패트리어트"]  그들의 어리석음이 자멸을 재촉하는군.
 </t>
   </si>
 </sst>
@@ -1381,1026 +2395,1788 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B127"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>269</v>
+      </c>
+      <c r="D16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" t="s">
+        <v>270</v>
+      </c>
+      <c r="D17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>271</v>
+      </c>
+      <c r="D18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>276</v>
+      </c>
+      <c r="D23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D25" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
+      <c r="D27" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>281</v>
+      </c>
+      <c r="D28" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" t="s">
+        <v>283</v>
+      </c>
+      <c r="D30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D33" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>290</v>
+      </c>
+      <c r="D37" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>291</v>
+      </c>
+      <c r="D38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>293</v>
+      </c>
+      <c r="D40" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" t="s">
+        <v>294</v>
+      </c>
+      <c r="D41" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>169</v>
+      </c>
+      <c r="C42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" t="s">
+        <v>296</v>
+      </c>
+      <c r="D43" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" t="s">
+        <v>297</v>
+      </c>
+      <c r="D44" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" t="s">
+        <v>298</v>
+      </c>
+      <c r="D45" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>173</v>
+      </c>
+      <c r="C46" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" t="s">
+        <v>300</v>
+      </c>
+      <c r="D47" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>301</v>
+      </c>
+      <c r="D48" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>302</v>
+      </c>
+      <c r="D49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D50" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" t="s">
+        <v>304</v>
+      </c>
+      <c r="D51" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
+      <c r="C52" t="s">
+        <v>305</v>
+      </c>
+      <c r="D52" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>306</v>
+      </c>
+      <c r="D53" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" t="s">
+        <v>307</v>
+      </c>
+      <c r="D54" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>308</v>
+      </c>
+      <c r="D55" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>183</v>
+      </c>
+      <c r="C56" t="s">
+        <v>309</v>
+      </c>
+      <c r="D56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>310</v>
+      </c>
+      <c r="D57" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>311</v>
+      </c>
+      <c r="D58" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>186</v>
+      </c>
+      <c r="C59" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>313</v>
+      </c>
+      <c r="D60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>188</v>
+      </c>
+      <c r="C61" t="s">
+        <v>314</v>
+      </c>
+      <c r="D61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" t="s">
+        <v>315</v>
+      </c>
+      <c r="D62" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
+        <v>316</v>
+      </c>
+      <c r="D63" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>191</v>
+      </c>
+      <c r="C64" t="s">
+        <v>317</v>
+      </c>
+      <c r="D64" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D65" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" t="s">
+        <v>320</v>
+      </c>
+      <c r="D67" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" t="s">
+        <v>321</v>
+      </c>
+      <c r="D68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>197</v>
+      </c>
+      <c r="C70" t="s">
+        <v>323</v>
+      </c>
+      <c r="D70" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
+        <v>324</v>
+      </c>
+      <c r="D71" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>199</v>
+      </c>
+      <c r="C72" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>200</v>
+      </c>
+      <c r="C73" t="s">
+        <v>326</v>
+      </c>
+      <c r="D73" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>201</v>
+      </c>
+      <c r="C74" t="s">
+        <v>327</v>
+      </c>
+      <c r="D74" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>202</v>
+      </c>
+      <c r="C75" t="s">
+        <v>328</v>
+      </c>
+      <c r="D75" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>203</v>
+      </c>
+      <c r="C76" t="s">
+        <v>329</v>
+      </c>
+      <c r="D76" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>204</v>
+      </c>
+      <c r="C77" t="s">
+        <v>330</v>
+      </c>
+      <c r="D77" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" t="s">
+        <v>331</v>
+      </c>
+      <c r="D78" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" t="s">
+        <v>332</v>
+      </c>
+      <c r="D79" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>207</v>
+      </c>
+      <c r="C80" t="s">
+        <v>333</v>
+      </c>
+      <c r="D80" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" t="s">
+        <v>334</v>
+      </c>
+      <c r="D81" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" t="s">
+        <v>335</v>
+      </c>
+      <c r="D82" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" t="s">
+        <v>336</v>
+      </c>
+      <c r="D83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" t="s">
+        <v>337</v>
+      </c>
+      <c r="D84" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" t="s">
+        <v>338</v>
+      </c>
+      <c r="D85" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" t="s">
+        <v>339</v>
+      </c>
+      <c r="D86" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" t="s">
+        <v>340</v>
+      </c>
+      <c r="D87" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" t="s">
+        <v>341</v>
+      </c>
+      <c r="D88" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" t="s">
+        <v>342</v>
+      </c>
+      <c r="D89" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" t="s">
+        <v>343</v>
+      </c>
+      <c r="D90" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" t="s">
+        <v>345</v>
+      </c>
+      <c r="D92" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>220</v>
+      </c>
+      <c r="C93" t="s">
+        <v>346</v>
+      </c>
+      <c r="D93" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C94" t="s">
+        <v>347</v>
+      </c>
+      <c r="D94" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" t="s">
+        <v>348</v>
+      </c>
+      <c r="D95" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>223</v>
+      </c>
+      <c r="C96" t="s">
+        <v>349</v>
+      </c>
+      <c r="D96" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>224</v>
+      </c>
+      <c r="C97" t="s">
+        <v>350</v>
+      </c>
+      <c r="D97" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98" t="s">
+        <v>351</v>
+      </c>
+      <c r="D98" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>226</v>
+      </c>
+      <c r="C99" t="s">
+        <v>352</v>
+      </c>
+      <c r="D99" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" t="s">
+        <v>353</v>
+      </c>
+      <c r="D100" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>228</v>
+      </c>
+      <c r="C101" t="s">
+        <v>354</v>
+      </c>
+      <c r="D101" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>229</v>
+      </c>
+      <c r="C102" t="s">
+        <v>355</v>
+      </c>
+      <c r="D102" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>230</v>
+      </c>
+      <c r="C103" t="s">
+        <v>356</v>
+      </c>
+      <c r="D103" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>231</v>
+      </c>
+      <c r="C104" t="s">
+        <v>357</v>
+      </c>
+      <c r="D104" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>232</v>
+      </c>
+      <c r="C105" t="s">
+        <v>358</v>
+      </c>
+      <c r="D105" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C106" t="s">
+        <v>359</v>
+      </c>
+      <c r="D106" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" t="s">
+        <v>360</v>
+      </c>
+      <c r="D107" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>235</v>
+      </c>
+      <c r="C108" t="s">
+        <v>361</v>
+      </c>
+      <c r="D108" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" t="s">
+        <v>362</v>
+      </c>
+      <c r="D109" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" t="s">
+        <v>363</v>
+      </c>
+      <c r="D110" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>238</v>
+      </c>
+      <c r="C111" t="s">
+        <v>364</v>
+      </c>
+      <c r="D111" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>239</v>
+      </c>
+      <c r="C112" t="s">
+        <v>365</v>
+      </c>
+      <c r="D112" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" t="s">
+        <v>366</v>
+      </c>
+      <c r="D113" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" t="s">
+        <v>367</v>
+      </c>
+      <c r="D114" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>242</v>
+      </c>
+      <c r="C115" t="s">
+        <v>368</v>
+      </c>
+      <c r="D115" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>243</v>
+      </c>
+      <c r="C116" t="s">
+        <v>369</v>
+      </c>
+      <c r="D116" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>244</v>
+      </c>
+      <c r="C117" t="s">
+        <v>370</v>
+      </c>
+      <c r="D117" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>245</v>
+      </c>
+      <c r="C118" t="s">
+        <v>371</v>
+      </c>
+      <c r="D118" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>246</v>
+      </c>
+      <c r="C119" t="s">
+        <v>372</v>
+      </c>
+      <c r="D119" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" t="s">
+        <v>373</v>
+      </c>
+      <c r="D120" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>248</v>
+      </c>
+      <c r="C121" t="s">
+        <v>374</v>
+      </c>
+      <c r="D121" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>249</v>
+      </c>
+      <c r="C122" t="s">
+        <v>375</v>
+      </c>
+      <c r="D122" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" t="s">
+        <v>376</v>
+      </c>
+      <c r="D123" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>251</v>
+      </c>
+      <c r="C124" t="s">
+        <v>377</v>
+      </c>
+      <c r="D124" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>252</v>
+      </c>
+      <c r="C125" t="s">
+        <v>378</v>
+      </c>
+      <c r="D125" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" t="s">
+        <v>379</v>
+      </c>
+      <c r="D126" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>101</v>
-      </c>
-      <c r="B101" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>102</v>
-      </c>
-      <c r="B102" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>104</v>
-      </c>
-      <c r="B104" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>105</v>
-      </c>
-      <c r="B105" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>107</v>
-      </c>
-      <c r="B107" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>110</v>
-      </c>
-      <c r="B110" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>112</v>
-      </c>
-      <c r="B112" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>113</v>
-      </c>
-      <c r="B113" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>114</v>
-      </c>
-      <c r="B114" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>115</v>
-      </c>
-      <c r="B115" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
       <c r="B127" t="s">
-        <v>252</v>
+        <v>254</v>
+      </c>
+      <c r="C127" t="s">
+        <v>380</v>
+      </c>
+      <c r="D127" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
